--- a/app/static/excel/new-shift-file.xlsx
+++ b/app/static/excel/new-shift-file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC2DF95-26F1-4948-9953-A26FC97C146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B65EC-ED83-4E69-885D-E22AF778E024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{381703FA-B695-4D40-9784-DCF9161D06C5}"/>
   </bookViews>
@@ -36,18 +36,6 @@
     <t>S. OutTime</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
     <t>8A</t>
   </si>
   <si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t>8B</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,46 +479,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">

--- a/app/static/excel/new-shift-file.xlsx
+++ b/app/static/excel/new-shift-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B65EC-ED83-4E69-885D-E22AF778E024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C7A0E-2978-43D9-B91D-0518C02C3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{381703FA-B695-4D40-9784-DCF9161D06C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Shift</t>
   </si>
@@ -39,9 +39,6 @@
     <t>8A</t>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
     <t>8C</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>06:00:00</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
   </si>
   <si>
     <t>22:00:00</t>
@@ -452,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C248AF-2E73-4D06-90F4-625F301E6BAE}">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -493,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -504,22 +498,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -585,11 +573,6 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
